--- a/newtoyota.xlsx
+++ b/newtoyota.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87B1A5B-2F1D-4B1F-BB16-B2ACBC2A4B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AC532E-0775-4544-A602-21641DF921CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B2CDDB2-C198-4080-B064-9328E3A06C8C}"/>
   </bookViews>
@@ -2789,7 +2789,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
